--- a/Group21 Contributions.xlsx
+++ b/Group21 Contributions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D4C1BC-053F-4529-B892-9D8B49C5F77F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Matriculation Number</t>
   </si>
@@ -42,9 +43,6 @@
   </si>
   <si>
     <t>Final Deliverable</t>
-  </si>
-  <si>
-    <t>xxxxxxx</t>
   </si>
   <si>
     <t>Total</t>
@@ -53,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,22 +491,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -528,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>40416068</v>
       </c>
@@ -538,9 +536,9 @@
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>40399626</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -548,9 +546,9 @@
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>40410790</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -558,9 +556,9 @@
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
+    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>40399574</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -568,9 +566,9 @@
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
